--- a/Прайс-лист.xlsx
+++ b/Прайс-лист.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="12260" windowHeight="17040"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">      Цена (в руб.)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>Изготовление металлокерамической коронки Vita (Германия)</t>
   </si>
@@ -35,36 +32,18 @@
     <t>Изготовление цельнолитой коронки</t>
   </si>
   <si>
-    <t>Изготовление безметалловой коронки ( диоксид циркония)</t>
-  </si>
-  <si>
     <t>Изготовление безметалловой коронки Emaх</t>
   </si>
   <si>
     <t>Изготовление винира  Emaх</t>
   </si>
   <si>
-    <t>Изготовление восстановительной вкладки ( диоксид циркония)</t>
-  </si>
-  <si>
-    <t>Изготовление культевой вкладки ( кобальт – хром)</t>
-  </si>
-  <si>
-    <t>Изготовление культевой вкладки ( диоксид циркония)</t>
-  </si>
-  <si>
     <t>Изготовление временной коронки в клинике</t>
   </si>
   <si>
     <t>Изготовление временной коронки в лаборатории</t>
   </si>
   <si>
-    <t>Изтовление металлокерамической коронки на имлантат                         «Alpha Bio»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Изготовление беметалловой коронки ( диоксид циркония) на имплантат </t>
-  </si>
-  <si>
     <t>Изготовление абатмента на имплантат</t>
   </si>
   <si>
@@ -86,9 +65,6 @@
     <t>Изготовление съемного протеза на имплантатах</t>
   </si>
   <si>
-    <t>Изготовление частичного съемного протеза ( до 3 – х зубов)</t>
-  </si>
-  <si>
     <t>Снятие слепка с одной челюсти</t>
   </si>
   <si>
@@ -123,13 +99,169 @@
   </si>
   <si>
     <t>Ортопедия</t>
+  </si>
+  <si>
+    <t>Хирургия</t>
+  </si>
+  <si>
+    <t>Простое удаление зуба</t>
+  </si>
+  <si>
+    <t>Сложное удаление зуба</t>
+  </si>
+  <si>
+    <t>Удаление подвижного зуба</t>
+  </si>
+  <si>
+    <t>Разрез, дренаж</t>
+  </si>
+  <si>
+    <t>Иссечение капюшона</t>
+  </si>
+  <si>
+    <t>Наложение швов</t>
+  </si>
+  <si>
+    <t>Коагуляция десны с анестезией</t>
+  </si>
+  <si>
+    <t>Установка  имплантата системы</t>
+  </si>
+  <si>
+    <t>Установка формирователя десны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все на 4 ( All on 4) </t>
+  </si>
+  <si>
+    <t>4000 – 6000</t>
+  </si>
+  <si>
+    <t>«Nobel Biocare» (Швейцария)</t>
+  </si>
+  <si>
+    <t>«Inno» (Южная Корея)</t>
+  </si>
+  <si>
+    <t>«Alpha Bio» (Израиль)</t>
+  </si>
+  <si>
+    <t>Гигиена</t>
+  </si>
+  <si>
+    <t>Гигиена полости рта с применением Air – Flow (1 челюсть)</t>
+  </si>
+  <si>
+    <t>Фторирование и реминерализация одного зуба</t>
+  </si>
+  <si>
+    <t>Профессиональная УЗ чистка зубов (1 зуб)</t>
+  </si>
+  <si>
+    <t>Комплексная чистка (УЗ + Air – Flow)</t>
+  </si>
+  <si>
+    <t>Ортодонтия</t>
+  </si>
+  <si>
+    <t>Изготовление пластины на одну челюсть</t>
+  </si>
+  <si>
+    <t>Терапия</t>
+  </si>
+  <si>
+    <t>Консультация</t>
+  </si>
+  <si>
+    <t>Аппликационная анестезия</t>
+  </si>
+  <si>
+    <t>Инфильтрационная анестезия</t>
+  </si>
+  <si>
+    <t>Проводниковая анестезия</t>
+  </si>
+  <si>
+    <t>Лечение среднего кариеса</t>
+  </si>
+  <si>
+    <t>Лечение глубокого кариеса</t>
+  </si>
+  <si>
+    <t>Восстановление коронковой части зуба</t>
+  </si>
+  <si>
+    <t>Герметизация фиссур</t>
+  </si>
+  <si>
+    <t>Полировка пломбы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установка временной пломбы </t>
+  </si>
+  <si>
+    <t>Лечение пульпита с девитализирующей пастой в первое посещение</t>
+  </si>
+  <si>
+    <t>Механическая и медикаментозная обработка одного корневого канала</t>
+  </si>
+  <si>
+    <t>Пломбировка одного корневого канала лечебной пастой</t>
+  </si>
+  <si>
+    <t>Пломбировка одного корневого канала постоянной пастой + гуттаперча</t>
+  </si>
+  <si>
+    <t>Извлечение инородного тела из канала</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Художественная реставрация из композита </t>
+  </si>
+  <si>
+    <t>Избирательная пришлифовка зуба</t>
+  </si>
+  <si>
+    <t>Изготовление каппы (одна челюсть)</t>
+  </si>
+  <si>
+    <t>Цена (в руб.)</t>
+  </si>
+  <si>
+    <t>Изтовление металлокерамической коронки на имлантат «Alpha Bio»</t>
+  </si>
+  <si>
+    <t>Установка анкерного штифта (титан, стекловолокно)</t>
+  </si>
+  <si>
+    <t>Изготовление винира (композит)</t>
+  </si>
+  <si>
+    <t>Изготовление частичного съемного протеза (до 3 – х зубов)</t>
+  </si>
+  <si>
+    <t>Изготовление брекета (одна челюсть)</t>
+  </si>
+  <si>
+    <t>Изготовление безметалловой коронки (диоксид циркония)</t>
+  </si>
+  <si>
+    <t>Изготовление восстановительной вкладки (диоксид циркония)</t>
+  </si>
+  <si>
+    <t>Изготовление культевой вкладки (кобальт – хром)</t>
+  </si>
+  <si>
+    <t>Изготовление культевой вкладки (диоксид циркония)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изготовление беметалловой коронки (диоксид циркония) на имплантат </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +273,22 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -160,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -276,6 +424,26 @@
       <top style="thin">
         <color theme="0"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -289,43 +457,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Стоматология" xfId="1"/>
     <cellStyle name="Стоматология 1" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -346,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -386,7 +578,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -492,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -642,381 +834,1066 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D37"/>
+  <dimension ref="B1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="14"/>
+    <col min="2" max="2" width="3.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="14" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="14"/>
+    <col min="7" max="7" width="2.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="2:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4500</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15000</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>15000</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>17000</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="2:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>15000</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4000</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>500</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="2:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="18">
+        <v>12000</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="G15" s="1"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="2:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="18">
+        <v>13000</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>18000</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="7">
+        <v>30000</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>30000</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7">
+        <v>40000</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" ht="38" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="7">
+        <v>40000</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="2:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
+        <v>19</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>20</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <v>21</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <v>22</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <v>23</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <v>24</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <v>3</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <v>4</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <v>5</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
+        <v>6</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <v>7</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
+        <v>9</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <v>10</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
+        <v>11</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="B53" s="5">
+        <v>12</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B54" s="5">
+        <v>13</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="B55" s="5">
+        <v>14</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B56" s="5">
+        <v>15</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B57" s="5">
+        <v>16</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B58" s="5">
+        <v>17</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B59" s="5">
+        <v>18</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="11">
+        <v>19</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="5">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="5">
+        <v>2</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="5">
+        <v>3</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="5">
+        <v>4</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="5">
+        <v>5</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="5">
+        <v>6</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="5">
+        <v>7</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
+      <c r="D72" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="8">
+        <v>8</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" s="7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="11">
+        <v>9</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="13">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+      <c r="B84" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C84" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="7">
+        <v>150</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="2:10" ht="57" x14ac:dyDescent="0.25">
+      <c r="B85" s="5">
+        <v>2</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+      <c r="B86" s="5">
+        <v>3</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="7">
+        <v>100</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+      <c r="B87" s="11">
+        <v>4</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
+      <c r="C92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="7">
+        <v>750</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+      <c r="B93" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
+      <c r="C93" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="7">
+        <v>75000</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+      <c r="B94" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
+      <c r="C94" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" s="7">
+        <v>25000</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="2:10" ht="38" x14ac:dyDescent="0.25">
+      <c r="B95" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
-      <c r="C19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
-      <c r="C20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B22" s="4">
-        <v>13</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B23" s="4">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="4">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="6">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="4">
-        <v>16</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="4">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="6">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B27" s="7">
-        <v>18</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-      <c r="C29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="6">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B30" s="7">
-        <v>19</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="7"/>
-      <c r="C31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="7"/>
-      <c r="C32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="6">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="4">
-        <v>20</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="6">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B34" s="4">
-        <v>21</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="4">
-        <v>22</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="4">
-        <v>23</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="8">
-        <v>24</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="10">
-        <v>300</v>
+      <c r="C95" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="13">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="20">
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H88:J89"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="G25:I26"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="G1:I2"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
+    <mergeCell ref="G11:G15"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
